--- a/DesktopClient/TC_CreateProjectContract/Main.rvl.xlsx
+++ b/DesktopClient/TC_CreateProjectContract/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="140">
   <si>
     <t>Flow</t>
   </si>
@@ -404,6 +404,36 @@
   </si>
   <si>
     <t>Vendor account</t>
+  </si>
+  <si>
+    <t>DAX</t>
+  </si>
+  <si>
+    <t>Launch</t>
+  </si>
+  <si>
+    <t>ChangeCompany</t>
+  </si>
+  <si>
+    <t>OpenModule</t>
+  </si>
+  <si>
+    <t>Navigate</t>
+  </si>
+  <si>
+    <t>SelectFastTab</t>
+  </si>
+  <si>
+    <t>RVL</t>
+  </si>
+  <si>
+    <t>DoPlaySheet</t>
+  </si>
+  <si>
+    <t>Cleanup</t>
+  </si>
+  <si>
+    <t>FilterGrid</t>
   </si>
 </sst>
 </file>
@@ -424,7 +454,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="743">
+  <borders count="770">
     <border>
       <left/>
       <right/>
@@ -1174,11 +1204,38 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="743">
+  <cellXfs count="770">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -1922,6 +1979,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="740" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="741" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="742" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="743" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="744" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="745" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="746" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="747" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="748" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="749" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="750" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="751" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="752" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="753" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="754" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="755" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="756" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="757" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="758" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="759" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="760" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="761" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="762" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="763" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="764" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="765" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="766" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="767" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="768" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="769" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1931,7 +2015,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H60"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="true"/>
@@ -2149,446 +2233,456 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="215"/>
+      <c r="A15" s="212" t="s">
+        <v>78</v>
+      </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="216"/>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" t="s">
-        <v>104</v>
-      </c>
+      <c r="A16" s="213"/>
     </row>
     <row r="17">
-      <c r="A17" s="217"/>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" t="s">
-        <v>107</v>
-      </c>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="24"/>
     </row>
     <row r="18">
-      <c r="A18" s="218"/>
+      <c r="A18" s="163"/>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>132</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="212" t="s">
-        <v>78</v>
-      </c>
+      <c r="A19" s="162"/>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="213"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="32"/>
     </row>
     <row r="21">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="179"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="24"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="163"/>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" t="s">
-        <v>82</v>
-      </c>
+      <c r="C22" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="40"/>
     </row>
     <row r="23">
-      <c r="A23" s="162"/>
+      <c r="A23" s="165" t="s">
+        <v>7</v>
+      </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="166" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="167" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="168" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="169" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s">
         <v>12</v>
       </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="32"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="179"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="40"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="165" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" t="s">
-        <v>7</v>
-      </c>
       <c r="G27" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="166" t="s">
+      <c r="A28" s="170" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="167" t="s">
+      <c r="A29" s="171" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="172" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="173" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
         <v>28</v>
       </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="168" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" t="s">
-        <v>81</v>
-      </c>
-      <c r="G30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="169" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="170" t="s">
+      <c r="A32" s="174" t="s">
         <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="171" t="s">
+      <c r="A33" s="175" t="s">
         <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="176" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
         <v>34</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>35</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>81</v>
       </c>
-      <c r="G33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="172" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="G34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="177" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
         <v>13</v>
       </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
         <v>37</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>12</v>
       </c>
-      <c r="G34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="173" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" t="s">
-        <v>7</v>
-      </c>
       <c r="G35" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="174" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" t="s">
-        <v>48</v>
-      </c>
+      <c r="A36" s="201"/>
     </row>
     <row r="37">
-      <c r="A37" s="175" t="s">
-        <v>7</v>
-      </c>
+      <c r="A37" s="202"/>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
@@ -2601,354 +2695,305 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="176" t="s">
-        <v>7</v>
-      </c>
+      <c r="A38" s="203"/>
       <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="204"/>
+      <c r="B39" t="s">
         <v>3</v>
       </c>
-      <c r="C38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" t="s">
-        <v>81</v>
-      </c>
-      <c r="G38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="177" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="205"/>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="207"/>
+      <c r="B41" t="s">
         <v>13</v>
       </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="201"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="202"/>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" t="s">
-        <v>87</v>
-      </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="F41" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="203"/>
-      <c r="B42" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" t="s">
-        <v>89</v>
-      </c>
-      <c r="G42" t="s">
-        <v>61</v>
-      </c>
+      <c r="A42" s="180"/>
     </row>
     <row r="43">
-      <c r="A43" s="204"/>
+      <c r="A43" s="181"/>
       <c r="B43" t="s">
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="E43" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="F43" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="205"/>
+      <c r="A44" s="178" t="s">
+        <v>7</v>
+      </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="E44" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="F44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="48"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="765"/>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" t="s">
         <v>12</v>
       </c>
-      <c r="G44" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="207"/>
-      <c r="B45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" t="s">
-        <v>96</v>
-      </c>
-      <c r="F45" t="s">
-        <v>89</v>
-      </c>
-      <c r="G45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="180"/>
+      <c r="G46" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="181"/>
-      <c r="B47" t="s">
+      <c r="A47" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" t="s">
-        <v>56</v>
-      </c>
-      <c r="F47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" t="s">
-        <v>57</v>
-      </c>
+      <c r="C47" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="56"/>
     </row>
     <row r="48">
-      <c r="A48" s="178" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" t="s">
-        <v>7</v>
-      </c>
+      <c r="A48" s="57"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="64"/>
     </row>
     <row r="49">
-      <c r="A49" s="41"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="48"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="72"/>
     </row>
     <row r="50">
-      <c r="A50" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="B50" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" s="56"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="80"/>
     </row>
     <row r="51">
-      <c r="A51" s="57"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="63"/>
-      <c r="H51" s="64"/>
+      <c r="A51" s="81"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="88"/>
     </row>
     <row r="52">
-      <c r="A52" s="65"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="68"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="72"/>
+      <c r="A52" s="89"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="94"/>
+      <c r="G52" s="95"/>
+      <c r="H52" s="96"/>
     </row>
     <row r="53">
-      <c r="A53" s="73"/>
-      <c r="B53" s="74"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="76"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="80"/>
+      <c r="A53" s="97"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="101"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="103"/>
+      <c r="H53" s="104"/>
     </row>
     <row r="54">
-      <c r="A54" s="81"/>
-      <c r="B54" s="82"/>
-      <c r="C54" s="83"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="87"/>
-      <c r="H54" s="88"/>
+      <c r="A54" s="105"/>
+      <c r="B54" s="106"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="108"/>
+      <c r="E54" s="109"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="111"/>
+      <c r="H54" s="112"/>
     </row>
     <row r="55">
-      <c r="A55" s="89"/>
-      <c r="B55" s="90"/>
-      <c r="C55" s="91"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="93"/>
-      <c r="F55" s="94"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="96"/>
+      <c r="A55" s="113"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="117"/>
+      <c r="F55" s="118"/>
+      <c r="G55" s="119"/>
+      <c r="H55" s="120"/>
     </row>
     <row r="56">
-      <c r="A56" s="97"/>
-      <c r="B56" s="98"/>
-      <c r="C56" s="99"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="102"/>
-      <c r="G56" s="103"/>
-      <c r="H56" s="104"/>
+      <c r="A56" s="121"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="123"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="125"/>
+      <c r="F56" s="126"/>
+      <c r="G56" s="127"/>
+      <c r="H56" s="128"/>
     </row>
     <row r="57">
-      <c r="A57" s="105"/>
-      <c r="B57" s="106"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="108"/>
-      <c r="E57" s="109"/>
-      <c r="F57" s="110"/>
-      <c r="G57" s="111"/>
-      <c r="H57" s="112"/>
+      <c r="A57" s="129"/>
+      <c r="B57" s="130"/>
+      <c r="C57" s="131"/>
+      <c r="D57" s="132"/>
+      <c r="E57" s="133"/>
+      <c r="F57" s="134"/>
+      <c r="G57" s="135"/>
+      <c r="H57" s="136"/>
     </row>
     <row r="58">
-      <c r="A58" s="113"/>
-      <c r="B58" s="114"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="116"/>
-      <c r="E58" s="117"/>
-      <c r="F58" s="118"/>
-      <c r="G58" s="119"/>
-      <c r="H58" s="120"/>
+      <c r="A58" s="137"/>
+      <c r="B58" s="138"/>
+      <c r="C58" s="139"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="141"/>
+      <c r="F58" s="142"/>
+      <c r="G58" s="143"/>
+      <c r="H58" s="144"/>
     </row>
     <row r="59">
-      <c r="A59" s="121"/>
-      <c r="B59" s="122"/>
-      <c r="C59" s="123"/>
-      <c r="D59" s="124"/>
-      <c r="E59" s="125"/>
-      <c r="F59" s="126"/>
-      <c r="G59" s="127"/>
-      <c r="H59" s="128"/>
+      <c r="A59" s="145"/>
+      <c r="B59" s="146"/>
+      <c r="C59" s="147"/>
+      <c r="D59" s="148"/>
+      <c r="E59" s="149"/>
+      <c r="F59" s="150"/>
+      <c r="G59" s="151"/>
+      <c r="H59" s="152"/>
     </row>
     <row r="60">
-      <c r="A60" s="129"/>
-      <c r="B60" s="130"/>
-      <c r="C60" s="131"/>
-      <c r="D60" s="132"/>
-      <c r="E60" s="133"/>
-      <c r="F60" s="134"/>
-      <c r="G60" s="135"/>
-      <c r="H60" s="136"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="137"/>
-      <c r="B61" s="138"/>
-      <c r="C61" s="139"/>
-      <c r="D61" s="140"/>
-      <c r="E61" s="141"/>
-      <c r="F61" s="142"/>
-      <c r="G61" s="143"/>
-      <c r="H61" s="144"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="145"/>
-      <c r="B62" s="146"/>
-      <c r="C62" s="147"/>
-      <c r="D62" s="148"/>
-      <c r="E62" s="149"/>
-      <c r="F62" s="150"/>
-      <c r="G62" s="151"/>
-      <c r="H62" s="152"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="153"/>
-      <c r="B63" s="154"/>
-      <c r="C63" s="155"/>
-      <c r="D63" s="156"/>
-      <c r="E63" s="157"/>
-      <c r="F63" s="158"/>
-      <c r="G63" s="159"/>
-      <c r="H63" s="160"/>
+      <c r="A60" s="153"/>
+      <c r="B60" s="154"/>
+      <c r="C60" s="155"/>
+      <c r="D60" s="156"/>
+      <c r="E60" s="157"/>
+      <c r="F60" s="158"/>
+      <c r="G60" s="159"/>
+      <c r="H60" s="160"/>
     </row>
   </sheetData>
 </worksheet>
@@ -3104,10 +3149,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="246" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="D9" s="247" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="E9" s="248" t="s">
         <v>96</v>
@@ -3121,7 +3166,7 @@
       <c r="H9" s="251"/>
     </row>
     <row r="10">
-      <c r="A10" s="724"/>
+      <c r="A10" s="769"/>
       <c r="B10" t="s">
         <v>13</v>
       </c>
